--- a/Brute-Force Check/bargeDetails11.xlsx
+++ b/Brute-Force Check/bargeDetails11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4208692-AE00-4448-90AE-F0852B50937A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7499AA7B-57C8-4341-BF2C-B4E393C0B962}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,6 +18,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -62,7 +63,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.00000E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -98,7 +99,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -384,7 +385,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -502,11 +503,11 @@
         <v>4800</v>
       </c>
       <c r="I3" s="2">
-        <v>201801010600</v>
+        <v>201801010615</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J5" si="1">TEXT(I3,"0000-00-00 00\:00")+0</f>
-        <v>43101.25</v>
+        <v>43101.260416666664</v>
       </c>
       <c r="K3" s="1"/>
     </row>
